--- a/Project Tracking.xlsx
+++ b/Project Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1234ff9911625a5e/Desktop/Project management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{78728909-074A-4D16-B7E3-EBB1C0B1CFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE00FF6C-E931-4CFC-9155-7F767401C4F7}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{78728909-074A-4D16-B7E3-EBB1C0B1CFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527AF775-0ECD-4B0B-AB8B-AF159F5610C5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EF90D01-4CDF-4029-97A8-92C1C813C2D9}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="164" formatCode="d"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -160,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,18 +175,17 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,6 +205,230 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CF4A36-8D2D-786B-F11D-7CC92A5E5173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4899660" y="1226820"/>
+          <a:ext cx="5234940" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1"/>
+            <a:t>Fill</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0"/>
+            <a:t> the start date in the Project Start date cell it will calculate the time of the process .                                                              </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Fill SLA time period of the task or project in this cell .</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3395C5-1FEA-D6D4-D656-F1B42BC4CA2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="579120"/>
+          <a:ext cx="815340" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>777240</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFCFC47-D7B5-458A-9CC3-9E4AABB188FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3307080" y="1363980"/>
+          <a:ext cx="1760220" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,7 +731,7 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,27 +771,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -591,42 +812,42 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f>I4</f>
         <v>45324</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10">
         <f>O4</f>
         <v>45330</v>
       </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10">
         <f>U4</f>
         <v>45336</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11">
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10">
         <f>AA4</f>
         <v>45342</v>
       </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="I4" s="6">
@@ -727,12 +948,12 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
       <c r="I5" s="2" t="str">
         <f>LEFT(TEXT(I4,"ddd"),3)</f>
         <v>Fri</v>
@@ -831,16 +1052,16 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="1"/>
@@ -877,11 +1098,11 @@
         <v>45324</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" s="3">
         <f>C7+D7-1</f>
-        <v>45326</v>
+        <v>45329</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -914,14 +1135,14 @@
       </c>
       <c r="C8" s="3">
         <f>E7+1</f>
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="D8" s="2">
         <v>5</v>
       </c>
       <c r="E8" s="3">
         <f>C8+D8-1</f>
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -954,14 +1175,14 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ref="C9:C10" si="2">E8+1</f>
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ref="E9:E10" si="3">C9+D9-1</f>
-        <v>45337</v>
+        <v>45340</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -994,14 +1215,14 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="2"/>
-        <v>45338</v>
+        <v>45341</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="3"/>
-        <v>45345</v>
+        <v>45348</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
@@ -1011,24 +1232,24 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1038,14 +1259,14 @@
       </c>
       <c r="C14" s="3">
         <f>E10+2</f>
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
       </c>
       <c r="E14" s="3">
         <f>C14+D14-1</f>
-        <v>45349</v>
+        <v>45352</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.3">
@@ -1054,14 +1275,14 @@
       </c>
       <c r="C15" s="3">
         <f>E14+1</f>
-        <v>45350</v>
+        <v>45353</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
       </c>
       <c r="E15" s="3">
         <f>C15+D15-1</f>
-        <v>45354</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.3">
@@ -1070,14 +1291,14 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ref="C16:C17" si="4">E15+1</f>
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="D16" s="2">
         <v>6</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ref="E16:E17" si="5">C16+D16-1</f>
-        <v>45360</v>
+        <v>45363</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1086,35 +1307,35 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" si="4"/>
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="D17" s="2">
         <v>8</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="5"/>
-        <v>45368</v>
+        <v>45371</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1124,14 +1345,14 @@
       </c>
       <c r="C21" s="3">
         <f>E17+3</f>
-        <v>45371</v>
+        <v>45374</v>
       </c>
       <c r="D21" s="2">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
         <f>C21+D21-1</f>
-        <v>45379.5</v>
+        <v>45378</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
@@ -1140,14 +1361,14 @@
       </c>
       <c r="C22" s="3">
         <f>E21+1</f>
-        <v>45380.5</v>
+        <v>45379</v>
       </c>
       <c r="D22" s="2">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3">
         <f>C22+D22-1</f>
-        <v>45390.6</v>
+        <v>45390</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
@@ -1156,14 +1377,14 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ref="C23:C24" si="6">E22+1</f>
-        <v>45391.6</v>
+        <v>45391</v>
       </c>
       <c r="D23" s="2">
-        <v>12.7</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ref="E23:E24" si="7">C23+D23-1</f>
-        <v>45403.299999999996</v>
+        <v>45397</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
@@ -1172,14 +1393,14 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" si="6"/>
-        <v>45404.299999999996</v>
+        <v>45398</v>
       </c>
       <c r="D24" s="2">
-        <v>14.3</v>
+        <v>9</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="7"/>
-        <v>45417.599999999999</v>
+        <v>45406</v>
       </c>
     </row>
   </sheetData>
@@ -1196,5 +1417,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Project Tracking.xlsx
+++ b/Project Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1234ff9911625a5e/Desktop/Project management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{78728909-074A-4D16-B7E3-EBB1C0B1CFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{527AF775-0ECD-4B0B-AB8B-AF159F5610C5}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{78728909-074A-4D16-B7E3-EBB1C0B1CFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C48FEC5-B8E8-4DA6-9F26-06FBE135406C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EF90D01-4CDF-4029-97A8-92C1C813C2D9}"/>
   </bookViews>
@@ -283,7 +283,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="1100" b="1" baseline="0"/>
-            <a:t> the start date in the Project Start date cell it will calculate the time of the process .                                                              </a:t>
+            <a:t> the start date in the "Project Start date" cell it will calculate the timeline or UTP of the process .                                                              </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-IN" sz="1100" b="1" baseline="0"/>
@@ -731,7 +731,7 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Project Tracking.xlsx
+++ b/Project Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1234ff9911625a5e/Desktop/Project management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{78728909-074A-4D16-B7E3-EBB1C0B1CFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C48FEC5-B8E8-4DA6-9F26-06FBE135406C}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{78728909-074A-4D16-B7E3-EBB1C0B1CFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C063C619-D922-48AF-B02F-7D92283E21F6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EF90D01-4CDF-4029-97A8-92C1C813C2D9}"/>
   </bookViews>
@@ -306,7 +306,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Fill SLA time period of the task or project in this cell .</a:t>
+            <a:t>Fill SLA time period required for the task  in this cell .</a:t>
           </a:r>
           <a:endParaRPr lang="en-IN" sz="1100" b="1">
             <a:solidFill>
@@ -731,7 +731,7 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AG17"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
